--- a/data/trans_orig/P34D1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34D1_2023-Habitat-trans_orig.xlsx
@@ -694,7 +694,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>21,58%</t>
+          <t>21,19%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -736,7 +736,7 @@
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>19,39%</t>
+          <t>20,03%</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>37,29%</t>
+          <t>38,28%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -805,7 +805,7 @@
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>29,65%</t>
+          <t>32,45%</t>
         </is>
       </c>
     </row>
@@ -827,12 +827,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>43,85%</t>
+          <t>46,6%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>85,91%</t>
+          <t>90,98%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -869,12 +869,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>44,96%</t>
+          <t>46,84%</t>
         </is>
       </c>
     </row>
@@ -896,12 +896,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>44,76%</t>
+          <t>44,36%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -938,12 +938,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>37,02%</t>
+          <t>35,35%</t>
         </is>
       </c>
     </row>
@@ -965,12 +965,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>22,47%</t>
+          <t>22,3%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>70,46%</t>
+          <t>68,89%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -991,7 +991,7 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>86,62%</t>
+          <t>83,03%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1007,12 +1007,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>20,93%</t>
+          <t>20,66%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>62,98%</t>
+          <t>63,8%</t>
         </is>
       </c>
     </row>
@@ -1055,12 +1055,12 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>93,93%</t>
+          <t>93,83%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
@@ -1076,12 +1076,12 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>20,03%</t>
+          <t>20,66%</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,56%</t>
+          <t>20,66%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>20,17%</t>
         </is>
       </c>
     </row>
@@ -1247,12 +1247,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
@@ -1268,12 +1268,12 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>28,0%</t>
+          <t>27,55%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
@@ -1289,12 +1289,12 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>10,24%</t>
         </is>
       </c>
     </row>
@@ -1316,12 +1316,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,14%</t>
+          <t>18,75%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10,54%</t>
+          <t>8,44%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>14,02%</t>
+          <t>15,04%</t>
         </is>
       </c>
     </row>
@@ -1385,12 +1385,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>18,95%</t>
+          <t>18,46%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>41,72%</t>
+          <t>40,81%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1406,12 +1406,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>31,4%</t>
+          <t>30,1%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1427,12 +1427,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>18,19%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>35,97%</t>
+          <t>36,51%</t>
         </is>
       </c>
     </row>
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>25,61%</t>
+          <t>25,4%</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
@@ -1475,12 +1475,12 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>21,61%</t>
+          <t>19,85%</t>
         </is>
       </c>
       <c r="M15" s="2" t="n">
@@ -1496,12 +1496,12 @@
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>22,27%</t>
+          <t>22,54%</t>
         </is>
       </c>
     </row>
@@ -1523,12 +1523,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>19,31%</t>
+          <t>20,74%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>41,16%</t>
+          <t>42,19%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1544,12 +1544,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>20,69%</t>
+          <t>18,76%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>50,23%</t>
+          <t>49,51%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1565,12 +1565,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>22,15%</t>
+          <t>22,45%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>41,02%</t>
+          <t>40,97%</t>
         </is>
       </c>
     </row>
@@ -1592,12 +1592,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>8,89%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>25,11%</t>
+          <t>23,65%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1613,12 +1613,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,92%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>39,4%</t>
+          <t>40,19%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1634,12 +1634,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>11,13%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>25,44%</t>
+          <t>24,39%</t>
         </is>
       </c>
     </row>
@@ -1661,12 +1661,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>27,84%</t>
+          <t>26,29%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
@@ -1703,12 +1703,12 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>11,54%</t>
         </is>
       </c>
     </row>
@@ -1805,12 +1805,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1826,12 +1826,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>9,44%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1847,12 +1847,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>5,76%</t>
         </is>
       </c>
     </row>
@@ -1874,12 +1874,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
@@ -1900,7 +1900,7 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="M21" s="2" t="n">
@@ -1916,12 +1916,12 @@
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>6,59%</t>
         </is>
       </c>
     </row>
@@ -1943,12 +1943,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>19,82%</t>
+          <t>20,06%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>34,94%</t>
+          <t>35,49%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -1964,12 +1964,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>22,69%</t>
+          <t>22,33%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>44,13%</t>
+          <t>45,33%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -1985,12 +1985,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>22,23%</t>
+          <t>22,28%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>34,87%</t>
+          <t>35,51%</t>
         </is>
       </c>
     </row>
@@ -2012,12 +2012,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>18,67%</t>
+          <t>19,23%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
@@ -2033,12 +2033,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>19,42%</t>
+          <t>20,23%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2054,12 +2054,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>17,22%</t>
+          <t>16,67%</t>
         </is>
       </c>
     </row>
@@ -2081,12 +2081,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>23,23%</t>
+          <t>23,24%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>39,34%</t>
+          <t>39,85%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2102,12 +2102,12 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>18,12%</t>
+          <t>18,41%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>41,47%</t>
+          <t>40,75%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2123,12 +2123,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>23,93%</t>
+          <t>23,84%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>37,38%</t>
+          <t>37,69%</t>
         </is>
       </c>
     </row>
@@ -2150,12 +2150,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>21,86%</t>
+          <t>22,18%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2171,12 +2171,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>9,13%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>26,39%</t>
+          <t>26,31%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2192,12 +2192,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>10,44%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>20,9%</t>
+          <t>20,57%</t>
         </is>
       </c>
     </row>
@@ -2219,12 +2219,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>16,61%</t>
+          <t>16,46%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2240,12 +2240,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>16,83%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2261,12 +2261,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>15,08%</t>
+          <t>14,42%</t>
         </is>
       </c>
     </row>
@@ -2363,12 +2363,12 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
@@ -2389,7 +2389,7 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>12,84%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
@@ -2405,12 +2405,12 @@
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>7,46%</t>
         </is>
       </c>
     </row>
@@ -2432,12 +2432,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>9,94%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2458,7 +2458,7 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2474,12 +2474,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>7,04%</t>
         </is>
       </c>
     </row>
@@ -2501,12 +2501,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>12,81%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>30,92%</t>
+          <t>31,5%</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
@@ -2522,12 +2522,12 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>14,3%</t>
+          <t>13,22%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>41,09%</t>
+          <t>39,42%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
@@ -2543,12 +2543,12 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>15,17%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>29,61%</t>
+          <t>29,84%</t>
         </is>
       </c>
     </row>
@@ -2570,12 +2570,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>21,74%</t>
+          <t>21,11%</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
@@ -2591,12 +2591,12 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>40,8%</t>
+          <t>41,82%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
@@ -2612,12 +2612,12 @@
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>24,01%</t>
+          <t>21,8%</t>
         </is>
       </c>
     </row>
@@ -2639,12 +2639,12 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>12,15%</t>
+          <t>12,08%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>34,43%</t>
+          <t>34,28%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
@@ -2660,12 +2660,12 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>9,92%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>35,6%</t>
+          <t>34,71%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
@@ -2681,12 +2681,12 @@
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>13,96%</t>
+          <t>13,7%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>31,11%</t>
+          <t>31,3%</t>
         </is>
       </c>
     </row>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>13,08%</t>
+          <t>13,22%</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>35,07%</t>
+          <t>34,54%</t>
         </is>
       </c>
       <c r="H33" s="2" t="n">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>11,65%</t>
+          <t>12,05%</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>40,99%</t>
+          <t>44,7%</t>
         </is>
       </c>
       <c r="M33" s="2" t="n">
@@ -2750,12 +2750,12 @@
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>15,36%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t>31,7%</t>
+          <t>32,81%</t>
         </is>
       </c>
     </row>
@@ -2777,12 +2777,12 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>28,57%</t>
+          <t>28,94%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
@@ -2798,12 +2798,12 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>33,17%</t>
+          <t>32,26%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
@@ -2819,12 +2819,12 @@
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>23,75%</t>
+          <t>23,25%</t>
         </is>
       </c>
     </row>
@@ -2921,12 +2921,12 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>10,16%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
@@ -2942,12 +2942,12 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>9,75%</t>
         </is>
       </c>
       <c r="M36" s="2" t="n">
@@ -2963,12 +2963,12 @@
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>7,84%</t>
         </is>
       </c>
     </row>
@@ -2990,12 +2990,12 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>14,73%</t>
+          <t>15,69%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
@@ -3011,12 +3011,12 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>22,94%</t>
+          <t>22,19%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
@@ -3032,12 +3032,12 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>14,22%</t>
+          <t>14,13%</t>
         </is>
       </c>
     </row>
@@ -3059,12 +3059,12 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>11,18%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>24,2%</t>
+          <t>23,2%</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
@@ -3080,12 +3080,12 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>10,99%</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>27,91%</t>
+          <t>27,86%</t>
         </is>
       </c>
       <c r="M38" s="2" t="n">
@@ -3101,12 +3101,12 @@
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>12,92%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>22,92%</t>
+          <t>22,84%</t>
         </is>
       </c>
     </row>
@@ -3128,12 +3128,12 @@
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>23,15%</t>
+          <t>22,5%</t>
         </is>
       </c>
       <c r="H39" s="2" t="n">
@@ -3149,12 +3149,12 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>39,0%</t>
+          <t>38,63%</t>
         </is>
       </c>
       <c r="M39" s="2" t="n">
@@ -3170,12 +3170,12 @@
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>11,19%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="Q39" s="2" t="inlineStr">
         <is>
-          <t>25,33%</t>
+          <t>24,04%</t>
         </is>
       </c>
     </row>
@@ -3197,12 +3197,12 @@
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>23,43%</t>
+          <t>24,46%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>40,25%</t>
+          <t>39,94%</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
@@ -3218,12 +3218,12 @@
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>14,98%</t>
+          <t>15,51%</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>36,49%</t>
+          <t>35,86%</t>
         </is>
       </c>
       <c r="M40" s="2" t="n">
@@ -3239,12 +3239,12 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>22,78%</t>
+          <t>23,51%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
         <is>
-          <t>35,66%</t>
+          <t>36,3%</t>
         </is>
       </c>
     </row>
@@ -3266,12 +3266,12 @@
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>10,26%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>22,2%</t>
+          <t>21,3%</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
@@ -3287,12 +3287,12 @@
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>12,72%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>30,46%</t>
+          <t>28,86%</t>
         </is>
       </c>
       <c r="M41" s="2" t="n">
@@ -3308,12 +3308,12 @@
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>12,3%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t>22,01%</t>
+          <t>22,34%</t>
         </is>
       </c>
     </row>
@@ -3335,12 +3335,12 @@
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>13,77%</t>
+          <t>13,69%</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
@@ -3356,12 +3356,12 @@
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>10,9%</t>
+          <t>11,31%</t>
         </is>
       </c>
       <c r="M42" s="2" t="n">
@@ -3377,12 +3377,12 @@
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t>11,63%</t>
+          <t>11,04%</t>
         </is>
       </c>
     </row>
@@ -3479,12 +3479,12 @@
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
@@ -3500,12 +3500,12 @@
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="M44" s="2" t="n">
@@ -3521,12 +3521,12 @@
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>5,43%</t>
         </is>
       </c>
     </row>
@@ -3548,12 +3548,12 @@
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="H45" s="2" t="n">
@@ -3569,12 +3569,12 @@
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>8,93%</t>
         </is>
       </c>
       <c r="M45" s="2" t="n">
@@ -3590,12 +3590,12 @@
       </c>
       <c r="P45" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="Q45" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>7,48%</t>
         </is>
       </c>
     </row>
@@ -3617,12 +3617,12 @@
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>18,72%</t>
+          <t>18,68%</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>26,68%</t>
+          <t>27,35%</t>
         </is>
       </c>
       <c r="H46" s="2" t="n">
@@ -3638,12 +3638,12 @@
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>19,22%</t>
+          <t>19,08%</t>
         </is>
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>30,42%</t>
+          <t>30,76%</t>
         </is>
       </c>
       <c r="M46" s="2" t="n">
@@ -3659,12 +3659,12 @@
       </c>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>20,04%</t>
+          <t>19,94%</t>
         </is>
       </c>
       <c r="Q46" s="2" t="inlineStr">
         <is>
-          <t>26,37%</t>
+          <t>26,68%</t>
         </is>
       </c>
     </row>
@@ -3686,12 +3686,12 @@
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>9,73%</t>
+          <t>10,06%</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>16,86%</t>
         </is>
       </c>
       <c r="H47" s="2" t="n">
@@ -3707,12 +3707,12 @@
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>8,89%</t>
         </is>
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>24,24%</t>
+          <t>24,61%</t>
         </is>
       </c>
       <c r="M47" s="2" t="n">
@@ -3728,12 +3728,12 @@
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>10,65%</t>
+          <t>10,83%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
         <is>
-          <t>17,0%</t>
+          <t>16,91%</t>
         </is>
       </c>
     </row>
@@ -3755,12 +3755,12 @@
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>25,49%</t>
+          <t>24,82%</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>34,04%</t>
+          <t>33,55%</t>
         </is>
       </c>
       <c r="H48" s="2" t="n">
@@ -3776,12 +3776,12 @@
       </c>
       <c r="K48" s="2" t="inlineStr">
         <is>
-          <t>20,79%</t>
+          <t>20,45%</t>
         </is>
       </c>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>33,43%</t>
+          <t>31,98%</t>
         </is>
       </c>
       <c r="M48" s="2" t="n">
@@ -3797,12 +3797,12 @@
       </c>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t>25,27%</t>
+          <t>24,71%</t>
         </is>
       </c>
       <c r="Q48" s="2" t="inlineStr">
         <is>
-          <t>32,29%</t>
+          <t>32,14%</t>
         </is>
       </c>
     </row>
@@ -3824,12 +3824,12 @@
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>12,66%</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>19,39%</t>
+          <t>19,5%</t>
         </is>
       </c>
       <c r="H49" s="2" t="n">
@@ -3845,12 +3845,12 @@
       </c>
       <c r="K49" s="2" t="inlineStr">
         <is>
-          <t>14,96%</t>
+          <t>14,24%</t>
         </is>
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>26,01%</t>
+          <t>25,08%</t>
         </is>
       </c>
       <c r="M49" s="2" t="n">
@@ -3866,12 +3866,12 @@
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>14,09%</t>
+          <t>14,06%</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr">
         <is>
-          <t>20,09%</t>
+          <t>19,98%</t>
         </is>
       </c>
     </row>
@@ -3884,7 +3884,7 @@
         <v>46</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>60834</v>
+        <v>60835</v>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
@@ -3893,12 +3893,12 @@
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>12,94%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="H50" s="2" t="n">
@@ -3914,12 +3914,12 @@
       </c>
       <c r="K50" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="M50" s="2" t="n">
@@ -3935,12 +3935,12 @@
       </c>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr">
         <is>
-          <t>11,45%</t>
+          <t>11,19%</t>
         </is>
       </c>
     </row>
@@ -3955,7 +3955,7 @@
         <v>510</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>645028</v>
+        <v>645029</v>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>

--- a/data/trans_orig/P34D1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34D1_2023-Habitat-trans_orig.xlsx
@@ -670,7 +670,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
@@ -1228,7 +1228,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="n">
@@ -1786,7 +1786,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B20" s="3" t="n">
@@ -2344,7 +2344,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B28" s="3" t="n">

--- a/data/trans_orig/P34D1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34D1_2023-Habitat-trans_orig.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal original" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables originales" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,7 +537,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el número de días en los que realizó actividades físicas intensas durante los últimos 7 días en 2023 (Tasa respuesta: 8,94%)</t>
+          <t>Población según el número de días en los que realizó actividades físicas intensas durante los últimos 7 días en 2023 (Tasa respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -684,7 +684,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -694,7 +694,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>21,19%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -715,7 +715,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>26,42%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -726,7 +726,7 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>20,03%</t>
+          <t>1,9%</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>38,28%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -784,7 +784,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>26,42%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -795,7 +795,7 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
@@ -805,7 +805,7 @@
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>32,45%</t>
+          <t>3,38%</t>
         </is>
       </c>
     </row>
@@ -822,17 +822,17 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>19,95%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>46,6%</t>
+          <t>10,04%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -843,17 +843,17 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>29,5%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>90,98%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -864,17 +864,17 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>21,61%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>46,84%</t>
+          <t>5,24%</t>
         </is>
       </c>
     </row>
@@ -891,17 +891,17 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>44,36%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -922,7 +922,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>26,42%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -933,17 +933,17 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>15,29%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>35,35%</t>
+          <t>4,15%</t>
         </is>
       </c>
     </row>
@@ -960,17 +960,17 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>44,27%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>22,3%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>68,89%</t>
+          <t>13,95%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -981,7 +981,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>30,74%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>83,03%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1002,17 +1002,17 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>41,92%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>20,66%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>63,8%</t>
+          <t>7,34%</t>
         </is>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,53%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
@@ -1050,17 +1050,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>39,76%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>93,83%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>20,66%</t>
+          <t>2,04%</t>
         </is>
       </c>
     </row>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,66%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>26,42%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
@@ -1150,2873 +1150,3287 @@
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>20,17%</t>
+          <t>1,8%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>83993</v>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>82,36%</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>73,42%</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>89,53%</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>237</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>126953</v>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>97,11%</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>92,93%</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>98,96%</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>338</v>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>210946</v>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>90,65%</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>85,84%</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>93,5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>17989</v>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>3780</v>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>21769</v>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="Q11" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="C12" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>101982</v>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>243</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>130733</v>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="N12" s="2" t="n">
+        <v>232715</v>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>2-10.000 hab</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B13" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C13" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D13" s="2" t="n">
         <v>3162</v>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,98%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,81%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>8,52%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,58%</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,16%</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1,71%</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I13" s="2" t="n">
         <v>3593</v>
       </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>10,9%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>2,95%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>27,55%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>6754</v>
-      </c>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>4,85%</t>
-        </is>
-      </c>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>1,88%</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr">
-        <is>
-          <t>10,24%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>6055</v>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>5,7%</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>1,27%</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>18,75%</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>596</v>
-      </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
         <v>6</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>6652</v>
+        <v>6754</v>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>15,04%</t>
+          <t>1,32%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>23</v>
-      </c>
       <c r="D14" s="2" t="n">
-        <v>30413</v>
+        <v>6055</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>28,62%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>18,46%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>40,81%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>5414</v>
+        <v>596</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>16,43%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>30,1%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>35827</v>
+        <v>6651</v>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>25,74%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>18,19%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>36,51%</t>
+          <t>1,9%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>13918</v>
+        <v>30413</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,1%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>25,4%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>2659</v>
+        <v>5414</v>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>19,85%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="M15" s="2" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>16577</v>
+        <v>35827</v>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>11,91%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>22,54%</t>
+          <t>4,66%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>13918</v>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2,53%</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0,87%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>5,2%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>31507</v>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>29,65%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>20,74%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>42,19%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>15</v>
-      </c>
       <c r="I16" s="2" t="n">
-        <v>11134</v>
+        <v>2659</v>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>33,79%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>18,76%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>49,51%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>42641</v>
+        <v>16577</v>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>30,63%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>22,45%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>40,97%</t>
+          <t>2,94%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>16298</v>
+        <v>31507</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>15,34%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>23,65%</t>
+          <t>8,64%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>7050</v>
+        <v>11134</v>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>21,4%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>40,19%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>23348</v>
+        <v>42641</v>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>16,77%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>24,39%</t>
+          <t>5,18%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>4910</v>
+        <v>16298</v>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>2499</v>
+        <v>7050</v>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>26,29%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>7410</v>
+        <v>23348</v>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>11,54%</t>
+          <t>3,16%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+      <c r="B19" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>106262</v>
+        <v>4910</v>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>32946</v>
+        <v>2499</v>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>139208</v>
+        <v>7410</v>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1,29%</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>10-50.000 hab</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>6</v>
+        <v>526</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>6122</v>
+        <v>443561</v>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>80,67%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>76,32%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>84,08%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
-        <v>4</v>
+        <v>953</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>2821</v>
+        <v>558939</v>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>94,43%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>92,32%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>96,07%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
-        <v>10</v>
+        <v>1479</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>8943</v>
+        <v>1002500</v>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>87,81%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>85,28%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>89,87%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>612</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>549823</v>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>994</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>591885</v>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="n">
+        <v>1606</v>
+      </c>
+      <c r="N21" s="2" t="n">
+        <v>1141708</v>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>8901</v>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>4,13%</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>1,71%</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>7,93%</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>671</v>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>0,84%</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>4,76%</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="n">
+      <c r="D22" s="2" t="n">
+        <v>6122</v>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0,59%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>0,24%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1,46%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>2821</v>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>0,27%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0,07%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>0,65%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="N21" s="2" t="n">
-        <v>9571</v>
-      </c>
-      <c r="O21" s="2" t="inlineStr">
-        <is>
-          <t>3,25%</t>
-        </is>
-      </c>
-      <c r="P21" s="2" t="inlineStr">
-        <is>
-          <t>1,45%</t>
-        </is>
-      </c>
-      <c r="Q21" s="2" t="inlineStr">
-        <is>
-          <t>6,59%</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>58077</v>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>26,97%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>20,06%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>35,49%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>25681</v>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>32,26%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>22,33%</t>
-        </is>
-      </c>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>45,33%</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="n">
-        <v>65</v>
-      </c>
       <c r="N22" s="2" t="n">
-        <v>83758</v>
+        <v>8943</v>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>28,4%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>22,28%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>35,51%</t>
+          <t>0,83%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>24200</v>
+        <v>8901</v>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>11,24%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>19,23%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>8730</v>
+        <v>670</v>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>0,06%</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>20,23%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>32930</v>
+        <v>9571</v>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>0,98%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>66046</v>
+        <v>58077</v>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>30,67%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>23,24%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>39,85%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>22497</v>
+        <v>25681</v>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>28,26%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>18,41%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>40,75%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>88543</v>
+        <v>83758</v>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>30,02%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>23,84%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>37,69%</t>
+          <t>5,16%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>31539</v>
+        <v>24200</v>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>14,65%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>22,18%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>12331</v>
+        <v>8730</v>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>15,49%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>9,13%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>26,31%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>43871</v>
+        <v>32930</v>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>14,87%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>20,57%</t>
+          <t>2,34%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>20435</v>
+        <v>66046</v>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>16,46%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>6886</v>
+        <v>22497</v>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>16,83%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>27321</v>
+        <v>88543</v>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>14,42%</t>
+          <t>5,46%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+      <c r="B27" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>158</v>
+        <v>23</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>215321</v>
+        <v>31539</v>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>79617</v>
+        <v>12331</v>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="M27" s="2" t="n">
-        <v>245</v>
+        <v>36</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>294937</v>
+        <v>43871</v>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>2,93%</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>&gt;50.000hab</t>
-        </is>
-      </c>
+      <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>3396</v>
+        <v>20435</v>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>1124</v>
+        <v>6886</v>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>10,65%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>4520</v>
+        <v>27321</v>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>2,12%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>5</v>
+        <v>806</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>4689</v>
+        <v>823927</v>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>79,28%</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>75,84%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>9,94%</t>
+          <t>83,05%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
-        <v>2</v>
+        <v>1429</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>320</v>
+        <v>979857</v>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>92,49%</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,57%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>94,01%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
-        <v>7</v>
+        <v>2235</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>5010</v>
+        <v>1803785</v>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>85,95%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>83,89%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>87,77%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
-      <c r="B30" s="3" t="n">
-        <v>5</v>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
       </c>
       <c r="C30" s="2" t="n">
-        <v>22</v>
+        <v>964</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>22987</v>
+        <v>1039248</v>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>20,47%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>31,5%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
-        <v>14</v>
+        <v>1516</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>11783</v>
+        <v>1059474</v>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>24,65%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>13,22%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>39,42%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
-        <v>36</v>
+        <v>2480</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>34770</v>
+        <v>2098722</v>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>21,72%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>15,17%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>29,84%</t>
+          <t>100%</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n"/>
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000hab</t>
+        </is>
+      </c>
       <c r="B31" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>3396</v>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>0,47%</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>0,11%</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>1,33%</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>1124</v>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>0,13%</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>0,74%</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C31" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>13275</v>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>11,82%</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>6,19%</t>
-        </is>
-      </c>
-      <c r="G31" s="2" t="inlineStr">
-        <is>
-          <t>21,11%</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>9356</v>
-      </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>19,57%</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>7,73%</t>
-        </is>
-      </c>
-      <c r="L31" s="2" t="inlineStr">
-        <is>
-          <t>41,82%</t>
-        </is>
-      </c>
-      <c r="M31" s="2" t="n">
-        <v>19</v>
-      </c>
       <c r="N31" s="2" t="n">
-        <v>22631</v>
+        <v>4520</v>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>14,14%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>21,8%</t>
+          <t>0,68%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>24037</v>
+        <v>4689</v>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>21,41%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>12,08%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>34,28%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>10010</v>
+        <v>320</v>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>20,94%</t>
+          <t>0,04%</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>9,92%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>34,71%</t>
+          <t>0,13%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>34048</v>
+        <v>5010</v>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>21,27%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>13,7%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>31,3%</t>
+          <t>0,74%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n"/>
       <c r="B33" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>25126</v>
+        <v>22987</v>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>22,38%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>13,22%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>34,54%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="H33" s="2" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>11452</v>
+        <v>11783</v>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>23,95%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>44,7%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="M33" s="2" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>36578</v>
+        <v>34770</v>
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>22,85%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>15,36%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t>32,81%</t>
+          <t>3,19%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>12</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>18779</v>
+        <v>13275</v>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>16,72%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>28,94%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>3763</v>
+        <v>9357</v>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>32,26%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>22542</v>
+        <v>22631</v>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>14,08%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>23,25%</t>
+          <t>2,35%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n"/>
-      <c r="B35" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+      <c r="B35" s="3" t="n">
+        <v>3</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>112289</v>
+        <v>24038</v>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>47809</v>
+        <v>10010</v>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="M35" s="2" t="n">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>160099</v>
+        <v>34048</v>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>3,48%</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>Capitales</t>
-        </is>
-      </c>
+      <c r="A36" s="1" t="n"/>
       <c r="B36" s="3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C36" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>25126</v>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>3,45%</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>2,06%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>5,68%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="D36" s="2" t="n">
-        <v>9540</v>
-      </c>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t>4,94%</t>
-        </is>
-      </c>
-      <c r="F36" s="2" t="inlineStr">
-        <is>
-          <t>2,23%</t>
-        </is>
-      </c>
-      <c r="G36" s="2" t="inlineStr">
-        <is>
-          <t>9,55%</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="n">
-        <v>5</v>
-      </c>
       <c r="I36" s="2" t="n">
-        <v>3337</v>
+        <v>11452</v>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>9,75%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="M36" s="2" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>12876</v>
+        <v>36578</v>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>3,5%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>14912</v>
+        <v>18779</v>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>7,72%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>10087</v>
+        <v>3763</v>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>11,78%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>0,02%</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>22,19%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>24999</v>
+        <v>22542</v>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>2,52%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>28</v>
+        <v>589</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>32165</v>
+        <v>616322</v>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>16,65%</t>
+          <t>84,59%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>11,18%</t>
+          <t>81,12%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>23,2%</t>
+          <t>87,63%</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
-        <v>23</v>
+        <v>998</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>16186</v>
+        <v>825825</v>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>18,91%</t>
+          <t>94,53%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>92,19%</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>27,86%</t>
+          <t>96,46%</t>
         </is>
       </c>
       <c r="M38" s="2" t="n">
-        <v>51</v>
+        <v>1587</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>48350</v>
+        <v>1442146</v>
       </c>
       <c r="O38" s="2" t="inlineStr">
         <is>
-          <t>17,34%</t>
+          <t>90,01%</t>
         </is>
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>87,83%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>22,84%</t>
+          <t>92,18%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n"/>
-      <c r="B39" s="3" t="n">
-        <v>4</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
       </c>
       <c r="C39" s="2" t="n">
-        <v>25</v>
+        <v>675</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>29871</v>
+        <v>728611</v>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>15,46%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>22,5%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="H39" s="2" t="n">
+        <v>1046</v>
+      </c>
+      <c r="I39" s="2" t="n">
+        <v>873634</v>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="n">
+        <v>1721</v>
+      </c>
+      <c r="N39" s="2" t="n">
+        <v>1602245</v>
+      </c>
+      <c r="O39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="I39" s="2" t="n">
-        <v>15352</v>
-      </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>17,93%</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="inlineStr">
-        <is>
-          <t>6,12%</t>
-        </is>
-      </c>
-      <c r="L39" s="2" t="inlineStr">
-        <is>
-          <t>38,63%</t>
-        </is>
-      </c>
-      <c r="M39" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="N39" s="2" t="n">
-        <v>45223</v>
-      </c>
-      <c r="O39" s="2" t="inlineStr">
-        <is>
-          <t>16,22%</t>
-        </is>
-      </c>
-      <c r="P39" s="2" t="inlineStr">
-        <is>
-          <t>10,74%</t>
-        </is>
-      </c>
-      <c r="Q39" s="2" t="inlineStr">
-        <is>
-          <t>24,04%</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n"/>
-      <c r="B40" s="3" t="n">
-        <v>3</v>
-      </c>
       <c r="C40" s="2" t="n">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>61392</v>
+        <v>9540</v>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>31,78%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>24,46%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>39,94%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>20702</v>
+        <v>3337</v>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>24,18%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>35,86%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="M40" s="2" t="n">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>82094</v>
+        <v>12876</v>
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>29,45%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>23,51%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
         <is>
-          <t>36,3%</t>
+          <t>1,09%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n"/>
       <c r="B41" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>29413</v>
+        <v>14912</v>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>21,3%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>16954</v>
+        <v>10087</v>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>19,81%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>12,37%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>28,86%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="M41" s="2" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>46367</v>
+        <v>24999</v>
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>16,63%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>12,3%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t>22,34%</t>
+          <t>1,97%</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>15875</v>
+        <v>32165</v>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>13,69%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>2984</v>
+        <v>16186</v>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>11,31%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="M42" s="2" t="n">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>18859</v>
+        <v>48350</v>
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t>11,04%</t>
+          <t>3,12%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n"/>
-      <c r="B43" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+      <c r="B43" s="3" t="n">
+        <v>4</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>163</v>
+        <v>25</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>193168</v>
+        <v>29871</v>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="H43" s="2" t="n">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>85601</v>
+        <v>15352</v>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="M43" s="2" t="n">
-        <v>253</v>
+        <v>32</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>278769</v>
+        <v>45223</v>
       </c>
       <c r="O43" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>3,27%</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A44" s="1" t="n"/>
       <c r="B44" s="3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>23093</v>
+        <v>61392</v>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>10875</v>
+        <v>20702</v>
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="M44" s="2" t="n">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="N44" s="2" t="n">
-        <v>33968</v>
+        <v>82094</v>
       </c>
       <c r="O44" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>5,01%</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n"/>
       <c r="B45" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>35957</v>
+        <v>29413</v>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>8,78%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="H45" s="2" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>11675</v>
+        <v>16954</v>
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="M45" s="2" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="N45" s="2" t="n">
-        <v>47632</v>
+        <v>46367</v>
       </c>
       <c r="O45" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="P45" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="Q45" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>2,94%</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>147230</v>
+        <v>15875</v>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>22,83%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>18,68%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>27,35%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="H46" s="2" t="n">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>60179</v>
+        <v>2984</v>
       </c>
       <c r="J46" s="2" t="inlineStr">
         <is>
-          <t>24,1%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>19,08%</t>
+          <t>0,06%</t>
         </is>
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>30,76%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="M46" s="2" t="n">
-        <v>188</v>
+        <v>16</v>
       </c>
       <c r="N46" s="2" t="n">
-        <v>207409</v>
+        <v>18859</v>
       </c>
       <c r="O46" s="2" t="inlineStr">
         <is>
-          <t>23,18%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>19,94%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="Q46" s="2" t="inlineStr">
         <is>
-          <t>26,68%</t>
+          <t>1,51%</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n"/>
       <c r="B47" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>63</v>
+        <v>843</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>84592</v>
+        <v>772236</v>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>79,99%</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>76,68%</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>16,86%</t>
+          <t>82,79%</t>
         </is>
       </c>
       <c r="H47" s="2" t="n">
-        <v>28</v>
+        <v>1471</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>36098</v>
+        <v>1062068</v>
       </c>
       <c r="J47" s="2" t="inlineStr">
         <is>
-          <t>14,45%</t>
+          <t>92,54%</t>
         </is>
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>90,36%</t>
         </is>
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>24,61%</t>
+          <t>94,2%</t>
         </is>
       </c>
       <c r="M47" s="2" t="n">
-        <v>91</v>
+        <v>2314</v>
       </c>
       <c r="N47" s="2" t="n">
-        <v>120689</v>
+        <v>1834304</v>
       </c>
       <c r="O47" s="2" t="inlineStr">
         <is>
-          <t>13,49%</t>
+          <t>86,81%</t>
         </is>
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>10,83%</t>
+          <t>84,8%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
         <is>
-          <t>16,91%</t>
+          <t>88,31%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n"/>
-      <c r="B48" s="3" t="n">
-        <v>3</v>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
       </c>
       <c r="C48" s="2" t="n">
-        <v>146</v>
+        <v>1006</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>190946</v>
+        <v>965403</v>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>29,6%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>24,82%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>33,55%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="H48" s="2" t="n">
-        <v>75</v>
+        <v>1561</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>65504</v>
+        <v>1147669</v>
       </c>
       <c r="J48" s="2" t="inlineStr">
         <is>
-          <t>26,23%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K48" s="2" t="inlineStr">
         <is>
-          <t>20,45%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>31,98%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M48" s="2" t="n">
-        <v>221</v>
+        <v>2567</v>
       </c>
       <c r="N48" s="2" t="n">
-        <v>256450</v>
+        <v>2113073</v>
       </c>
       <c r="O48" s="2" t="inlineStr">
         <is>
-          <t>28,66%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t>24,71%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q48" s="2" t="inlineStr">
         <is>
-          <t>32,14%</t>
+          <t>100%</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n"/>
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B49" s="3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>102376</v>
+        <v>23093</v>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>15,87%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>19,5%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="H49" s="2" t="n">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>49290</v>
+        <v>10875</v>
       </c>
       <c r="J49" s="2" t="inlineStr">
         <is>
-          <t>19,74%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="K49" s="2" t="inlineStr">
         <is>
-          <t>14,24%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>25,08%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="M49" s="2" t="n">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="N49" s="2" t="n">
-        <v>151666</v>
+        <v>33968</v>
       </c>
       <c r="O49" s="2" t="inlineStr">
         <is>
-          <t>16,95%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>14,06%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr">
         <is>
-          <t>19,98%</t>
+          <t>0,66%</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n"/>
       <c r="B50" s="3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>60835</v>
+        <v>35957</v>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>13,2%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="H50" s="2" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>16132</v>
+        <v>11675</v>
       </c>
       <c r="J50" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="K50" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="M50" s="2" t="n">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="N50" s="2" t="n">
-        <v>76967</v>
+        <v>47632</v>
       </c>
       <c r="O50" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr">
         <is>
-          <t>11,19%</t>
+          <t>0,97%</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n"/>
-      <c r="B51" s="3" t="inlineStr">
+      <c r="B51" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>147230</v>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>4,35%</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>3,47%</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>5,19%</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="I51" s="2" t="n">
+        <v>60179</v>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>1,58%</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>1,22%</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>2,03%</t>
+        </is>
+      </c>
+      <c r="M51" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="N51" s="2" t="n">
+        <v>207409</v>
+      </c>
+      <c r="O51" s="2" t="inlineStr">
+        <is>
+          <t>2,89%</t>
+        </is>
+      </c>
+      <c r="P51" s="2" t="inlineStr">
+        <is>
+          <t>2,46%</t>
+        </is>
+      </c>
+      <c r="Q51" s="2" t="inlineStr">
+        <is>
+          <t>3,41%</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n"/>
+      <c r="B52" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>84592</v>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>2,5%</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>1,84%</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>3,19%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="I52" s="2" t="n">
+        <v>36098</v>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>0,95%</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>0,59%</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>1,8%</t>
+        </is>
+      </c>
+      <c r="M52" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="N52" s="2" t="n">
+        <v>120689</v>
+      </c>
+      <c r="O52" s="2" t="inlineStr">
+        <is>
+          <t>1,68%</t>
+        </is>
+      </c>
+      <c r="P52" s="2" t="inlineStr">
+        <is>
+          <t>1,33%</t>
+        </is>
+      </c>
+      <c r="Q52" s="2" t="inlineStr">
+        <is>
+          <t>2,13%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>190946</v>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>5,64%</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>4,67%</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>6,85%</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="I53" s="2" t="n">
+        <v>65504</v>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>1,72%</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>1,28%</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>2,18%</t>
+        </is>
+      </c>
+      <c r="M53" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="N53" s="2" t="n">
+        <v>256450</v>
+      </c>
+      <c r="O53" s="2" t="inlineStr">
+        <is>
+          <t>3,57%</t>
+        </is>
+      </c>
+      <c r="P53" s="2" t="inlineStr">
+        <is>
+          <t>3,08%</t>
+        </is>
+      </c>
+      <c r="Q53" s="2" t="inlineStr">
+        <is>
+          <t>4,14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>102376</v>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>3,02%</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>2,39%</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>3,77%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="I54" s="2" t="n">
+        <v>49290</v>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>1,3%</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>0,98%</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>1,82%</t>
+        </is>
+      </c>
+      <c r="M54" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="N54" s="2" t="n">
+        <v>151666</v>
+      </c>
+      <c r="O54" s="2" t="inlineStr">
+        <is>
+          <t>2,11%</t>
+        </is>
+      </c>
+      <c r="P54" s="2" t="inlineStr">
+        <is>
+          <t>1,74%</t>
+        </is>
+      </c>
+      <c r="Q54" s="2" t="inlineStr">
+        <is>
+          <t>2,56%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>60835</v>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>1,8%</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>1,33%</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>2,48%</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="I55" s="2" t="n">
+        <v>16132</v>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>0,42%</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>0,24%</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>0,76%</t>
+        </is>
+      </c>
+      <c r="M55" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="N55" s="2" t="n">
+        <v>76967</v>
+      </c>
+      <c r="O55" s="2" t="inlineStr">
+        <is>
+          <t>1,07%</t>
+        </is>
+      </c>
+      <c r="P55" s="2" t="inlineStr">
+        <is>
+          <t>0,83%</t>
+        </is>
+      </c>
+      <c r="Q55" s="2" t="inlineStr">
+        <is>
+          <t>1,47%</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>2865</v>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>2740039</v>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>80,94%</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>79,11%</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>82,63%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="n">
+        <v>5088</v>
+      </c>
+      <c r="I56" s="2" t="n">
+        <v>3553642</v>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>93,43%</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>92,3%</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>94,26%</t>
+        </is>
+      </c>
+      <c r="M56" s="2" t="n">
+        <v>7953</v>
+      </c>
+      <c r="N56" s="2" t="n">
+        <v>6293682</v>
+      </c>
+      <c r="O56" s="2" t="inlineStr">
+        <is>
+          <t>87,55%</t>
+        </is>
+      </c>
+      <c r="P56" s="2" t="inlineStr">
+        <is>
+          <t>86,56%</t>
+        </is>
+      </c>
+      <c r="Q56" s="2" t="inlineStr">
+        <is>
+          <t>88,63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C51" s="2" t="n">
-        <v>510</v>
-      </c>
-      <c r="D51" s="2" t="n">
-        <v>645029</v>
-      </c>
-      <c r="E51" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F51" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="G51" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H51" s="2" t="n">
-        <v>272</v>
-      </c>
-      <c r="I51" s="2" t="n">
-        <v>249753</v>
-      </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="L51" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M51" s="2" t="n">
-        <v>782</v>
-      </c>
-      <c r="N51" s="2" t="n">
-        <v>894781</v>
-      </c>
-      <c r="O51" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="P51" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="Q51" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="C57" s="2" t="n">
+        <v>3375</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>3385068</v>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="n">
+        <v>5360</v>
+      </c>
+      <c r="I57" s="2" t="n">
+        <v>3803395</v>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M57" s="2" t="n">
+        <v>8735</v>
+      </c>
+      <c r="N57" s="2" t="n">
+        <v>7188463</v>
+      </c>
+      <c r="O57" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P57" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q57" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
@@ -4024,16 +4438,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A44:A51"/>
-    <mergeCell ref="A4:A11"/>
-    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="A22:A30"/>
     <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="A4:A12"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A31:A39"/>
+    <mergeCell ref="A49:A57"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="A40:A48"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
